--- a/BD_for_RLS.xlsx
+++ b/BD_for_RLS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -248,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -260,19 +260,19 @@
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -311,24 +311,6 @@
       </left>
       <right style="none"/>
       <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="none"/>
-      <top style="none"/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
@@ -358,44 +340,38 @@
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="thin">
         <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="thin">
         <color theme="1"/>
       </right>
       <top style="thin">
         <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -477,33 +453,33 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="3" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,15 +492,15 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="3" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,22 +528,39 @@
     <xf fontId="1" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2205,13 +2198,14 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="6.00390625"/>
     <col customWidth="1" min="2" max="2" width="16.28125"/>
-    <col customWidth="1" min="3" max="3" width="19.140625"/>
+    <col customWidth="1" min="3" max="3" width="29.28125"/>
     <col customWidth="1" min="4" max="4" width="18.00390625"/>
     <col customWidth="1" min="5" max="5" width="12.28125"/>
     <col customWidth="1" min="6" max="6" width="14.57421875"/>
     <col customWidth="1" min="7" max="7" width="14.00390625"/>
-    <col customWidth="1" min="9" max="9" width="15.00390625"/>
-    <col customWidth="1" min="10" max="11" width="16.00390625"/>
+    <col customWidth="1" min="9" max="9" style="11" width="15.00390625"/>
+    <col customWidth="1" min="10" max="11" style="11" width="16.00390625"/>
+    <col min="12" max="13" style="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25">
@@ -2229,7 +2223,9 @@
         <v>40</v>
       </c>
       <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" s="0" customFormat="1" ht="18.75">
       <c r="A2" s="46" t="s">
@@ -2267,229 +2263,288 @@
       <c r="K2" s="55" t="s">
         <v>26</v>
       </c>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="59" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="42"/>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="58" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="58" t="s">
         <v>28</v>
       </c>
+      <c r="L3" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="59">
+      <c r="A4" s="62">
         <v>1</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="37">
         <v>1</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K4" s="11">
         <v>3</v>
       </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="66"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="59">
+      <c r="A5" s="62">
         <v>2</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="I5" s="59" t="s">
+      <c r="G5" s="64"/>
+      <c r="I5" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="11">
         <v>2</v>
       </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="66"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="59">
+      <c r="A6" s="62">
         <v>3</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="64"/>
+      <c r="I6" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="11">
         <v>10</v>
       </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="59">
+      <c r="A7" s="62">
         <v>4</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="I7" s="59" t="s">
+      <c r="G7" s="64"/>
+      <c r="I7" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="62">
+      <c r="K7" s="11">
         <v>12</v>
       </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="59"/>
-      <c r="G8" s="62"/>
-      <c r="I8" s="59" t="s">
+      <c r="A8" s="62"/>
+      <c r="G8" s="64"/>
+      <c r="I8" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="11">
         <v>16</v>
       </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="66"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="59"/>
-      <c r="G9" s="62"/>
-      <c r="I9" s="59" t="s">
+      <c r="A9" s="62"/>
+      <c r="G9" s="64"/>
+      <c r="I9" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K9" s="11">
         <v>20</v>
       </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="66"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="59"/>
-      <c r="G10" s="62"/>
-      <c r="I10" s="59"/>
-      <c r="K10" s="62"/>
+      <c r="A10" s="62"/>
+      <c r="G10" s="64"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="66"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="59"/>
-      <c r="G11" s="62"/>
-      <c r="I11" s="59"/>
-      <c r="K11" s="62"/>
+      <c r="A11" s="62"/>
+      <c r="G11" s="64"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="66"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="59"/>
-      <c r="G12" s="62"/>
-      <c r="I12" s="59"/>
-      <c r="K12" s="62"/>
+      <c r="A12" s="62"/>
+      <c r="G12" s="64"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="66"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="59"/>
-      <c r="G13" s="62"/>
-      <c r="I13" s="59"/>
-      <c r="K13" s="62"/>
+      <c r="A13" s="62"/>
+      <c r="G13" s="64"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="66"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="59"/>
-      <c r="G14" s="62"/>
-      <c r="I14" s="59"/>
-      <c r="K14" s="62"/>
+      <c r="A14" s="62"/>
+      <c r="G14" s="64"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="66"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="59"/>
-      <c r="G15" s="62"/>
-      <c r="I15" s="59"/>
-      <c r="K15" s="62"/>
+      <c r="A15" s="62"/>
+      <c r="G15" s="64"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="66"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="59"/>
-      <c r="G16" s="62"/>
-      <c r="I16" s="59"/>
-      <c r="K16" s="62"/>
+      <c r="A16" s="62"/>
+      <c r="G16" s="64"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="66"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="59"/>
-      <c r="G17" s="62"/>
-      <c r="I17" s="59"/>
-      <c r="K17" s="62"/>
+      <c r="A17" s="62"/>
+      <c r="G17" s="64"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="66"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="59"/>
-      <c r="G18" s="62"/>
-      <c r="I18" s="59"/>
-      <c r="K18" s="62"/>
+      <c r="A18" s="62"/>
+      <c r="G18" s="64"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="66"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="59"/>
-      <c r="G19" s="62"/>
-      <c r="I19" s="59"/>
-      <c r="K19" s="62"/>
+      <c r="A19" s="62"/>
+      <c r="G19" s="64"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="66"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="59"/>
-      <c r="G20" s="62"/>
-      <c r="I20" s="59"/>
-      <c r="K20" s="62"/>
+      <c r="A20" s="62"/>
+      <c r="G20" s="64"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="66"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="59"/>
-      <c r="G21" s="62"/>
-      <c r="I21" s="59"/>
-      <c r="K21" s="62"/>
+      <c r="A21" s="62"/>
+      <c r="G21" s="64"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="66"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="59"/>
-      <c r="G22" s="62"/>
-      <c r="I22" s="59"/>
-      <c r="K22" s="62"/>
+      <c r="A22" s="62"/>
+      <c r="G22" s="64"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="66"/>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="35"/>
@@ -2499,15 +2554,18 @@
       <c r="E23" s="36"/>
       <c r="F23" s="36"/>
       <c r="G23" s="38"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="38"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I1:M1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
